--- a/report_template/yearForm.xlsx
+++ b/report_template/yearForm.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\AQM\report_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webApp\TSMC_AQMS\report_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -195,14 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>懸浮微粒連續測定分析儀 (PM10&amp;TSP)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 流量/壓力計內部濾紙更換</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 採樣動作檢查是否正常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -228,13 +220,21 @@
   </si>
   <si>
     <t>保養人員</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>懸浮微粒連續測定分析儀 (PM10&amp;PM2.5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 內部濾紙更換</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -654,6 +654,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -662,6 +674,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -674,60 +728,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -830,6 +830,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -865,6 +882,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1044,7 +1078,7 @@
   <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:F43"/>
+      <selection activeCell="B27" sqref="B27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1055,21 +1089,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="4"/>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -1082,7 +1116,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3"/>
     </row>
@@ -1090,11 +1124,11 @@
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1112,275 +1146,275 @@
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="16" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="22" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23"/>
-      <c r="B28" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
-      <c r="B29" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
       <c r="E29" s="3" t="s">
         <v>14</v>
       </c>
@@ -1395,100 +1429,100 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="33"/>
+      <c r="B32" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="33"/>
+      <c r="B33" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="26"/>
     </row>
     <row r="36" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="24"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="30"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
     </row>
     <row r="37" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="24"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:6" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="24"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="29"/>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="30"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="24"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="33"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="32"/>
     </row>
     <row r="41" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
@@ -1513,8 +1547,8 @@
       <c r="D43" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -1527,42 +1561,13 @@
       <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F44" s="21"/>
+      <c r="F44" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="A35:A40"/>
-    <mergeCell ref="B35:F40"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A23:A25"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="B13:D13"/>
@@ -1576,6 +1581,35 @@
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="A35:A40"/>
+    <mergeCell ref="B35:F40"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.55000000000000004" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
